--- a/archive/Sorting/07-28Sorting Night shift.xlsx
+++ b/archive/Sorting/07-28Sorting Night shift.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -58,7 +58,22 @@
     <t>Manuel,Martinez Suarez</t>
   </si>
   <si>
+    <t>Crystal,Knott</t>
+  </si>
+  <si>
+    <t>Yerson,Pena</t>
+  </si>
+  <si>
     <t>Edgar,Feliciano</t>
+  </si>
+  <si>
+    <t>Edwin,Santos</t>
+  </si>
+  <si>
+    <t>John,Turner III</t>
+  </si>
+  <si>
+    <t>Armando,Merchan Vera</t>
   </si>
   <si>
     <t>Total</t>
@@ -455,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,19 +563,19 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>74</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -580,22 +595,22 @@
         <v>83</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J4">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>59.33333333333334</v>
+        <v>59.14285714285715</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -618,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,31 +656,200 @@
         <v>14</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
         <v>128</v>
       </c>
-      <c r="D6">
+      <c r="D11">
         <v>216</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>220</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="F11">
+        <v>178</v>
+      </c>
+      <c r="G11">
+        <v>143</v>
+      </c>
+      <c r="H11">
+        <v>106</v>
+      </c>
+      <c r="I11">
+        <v>180</v>
+      </c>
+      <c r="J11">
         <v>148</v>
       </c>
-      <c r="K6">
-        <v>83.42857142857143</v>
+      <c r="K11">
+        <v>170.1428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -675,13 +859,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -700,8 +884,23 @@
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -715,16 +914,31 @@
         <v>4</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>38</v>
       </c>
-      <c r="F2">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>128</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,13 +955,28 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>216</v>
       </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,13 +993,28 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>220</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,19 +1025,34 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>178</v>
+      </c>
+      <c r="L5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,22 +1060,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>143</v>
+      </c>
+      <c r="L6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,11 +1109,26 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>106</v>
+      </c>
+      <c r="L7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,11 +1147,26 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>180</v>
+      </c>
+      <c r="L8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -879,9 +1183,24 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>148</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -900,19 +1219,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -920,19 +1239,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="D2">
         <v>238</v>
       </c>
       <c r="E2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="F2">
-        <v>572</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -940,19 +1259,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="D3">
         <v>454</v>
       </c>
       <c r="E3">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F3">
-        <v>774</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -960,19 +1279,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>462</v>
       </c>
       <c r="D4">
         <v>711</v>
       </c>
       <c r="E4">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="F4">
-        <v>1448</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -980,19 +1299,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="D5">
         <v>550</v>
       </c>
       <c r="E5">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="F5">
-        <v>1149</v>
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
@@ -1010,13 +1329,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1024,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="C2">
-        <v>712</v>
+        <v>1319</v>
       </c>
       <c r="D2">
-        <v>-688</v>
+        <v>-1481</v>
       </c>
     </row>
   </sheetData>
